--- a/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>VLON</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,25 +732,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,34 +1091,40 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1059,17 +1132,23 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,52 +1161,64 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,52 +1511,64 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,23 +1705,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,23 +1841,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,23 +1876,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1748,11 +1963,11 @@
       <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,23 +2156,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,23 +2225,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2256,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2004,13 +2271,13 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2024,23 +2291,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,23 +2326,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,22 +2361,28 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2111,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,23 +2536,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,23 +2726,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10100</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,23 +2866,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,28 +3030,30 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,28 +3581,34 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+        <v>15800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3125,8 +3616,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>VLON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -752,11 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>500</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>500</v>
+      </c>
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1018,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
       <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1066,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-800</v>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K18" s="3">
         <v>-800</v>
       </c>
       <c r="L18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1097,23 +1131,26 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,14 +1158,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1138,17 +1175,20 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,58 +1207,64 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-900</v>
       </c>
       <c r="J23" s="3">
         <v>-900</v>
       </c>
       <c r="K23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-900</v>
       </c>
       <c r="J26" s="3">
         <v>-900</v>
       </c>
       <c r="K26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-900</v>
       </c>
       <c r="J27" s="3">
         <v>-900</v>
       </c>
       <c r="K27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1517,58 +1587,64 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-900</v>
       </c>
       <c r="J33" s="3">
         <v>-900</v>
       </c>
       <c r="K33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-900</v>
       </c>
       <c r="J35" s="3">
         <v>-900</v>
       </c>
       <c r="K35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,26 +1793,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E41" s="3">
         <v>13000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,26 +1943,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,26 +1981,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3">
         <v>14300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,13 +2057,16 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -1969,8 +2077,8 @@
       <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,26 +2285,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E54" s="3">
         <v>14600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,25 +2357,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,16 +2405,16 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2297,26 +2431,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,26 +2469,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,7 +2519,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -2385,7 +2528,7 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,26 +2697,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,26 +2903,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,26 +3055,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E76" s="3">
         <v>12000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-900</v>
       </c>
       <c r="J81" s="3">
         <v>-900</v>
       </c>
       <c r="K81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3046,17 +3245,17 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,32 +3456,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,31 +3830,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>15800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,32 +3906,35 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>12900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>VLON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -759,11 +763,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
       </c>
       <c r="L12" s="3">
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1045,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1096,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L18" s="3">
         <v>-800</v>
       </c>
       <c r="M18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1134,23 +1168,26 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,17 +1195,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1178,17 +1215,20 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,61 +1250,67 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>-900</v>
       </c>
       <c r="L23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
       </c>
       <c r="L26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-900</v>
       </c>
       <c r="K27" s="3">
         <v>-900</v>
       </c>
       <c r="L27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1590,61 +1660,67 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-900</v>
       </c>
       <c r="K33" s="3">
         <v>-900</v>
       </c>
       <c r="L33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-900</v>
       </c>
       <c r="K35" s="3">
         <v>-900</v>
       </c>
       <c r="L35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,29 +1880,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>10500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,31 +1919,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,29 +2042,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,29 +2083,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E46" s="3">
         <v>11400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2069,7 +2177,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -2080,8 +2188,8 @@
       <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,29 +2411,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E54" s="3">
         <v>11600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,28 +2488,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2408,16 +2542,16 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,20 +2580,20 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,29 +2609,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2522,7 +2665,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -2531,7 +2674,7 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,29 +2855,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,29 +3077,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,29 +3241,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E76" s="3">
         <v>9900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-900</v>
       </c>
       <c r="K81" s="3">
         <v>-900</v>
       </c>
       <c r="L81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3248,17 +3447,17 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,35 +3673,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,13 +3854,16 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3647,11 +3877,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,25 +4088,25 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>15800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,35 +4158,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>VLON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -766,11 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>500</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
       </c>
       <c r="M12" s="3">
+        <v>500</v>
+      </c>
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1125,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M18" s="3">
         <v>-800</v>
       </c>
       <c r="N18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1171,23 +1204,26 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,20 +1231,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1218,17 +1254,20 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,64 +1292,70 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-900</v>
       </c>
       <c r="L23" s="3">
         <v>-900</v>
       </c>
       <c r="M23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-900</v>
       </c>
       <c r="L26" s="3">
         <v>-900</v>
       </c>
       <c r="M26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-900</v>
       </c>
       <c r="L27" s="3">
         <v>-900</v>
       </c>
       <c r="M27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1663,64 +1732,70 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-900</v>
       </c>
       <c r="L33" s="3">
         <v>-900</v>
       </c>
       <c r="M33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-900</v>
       </c>
       <c r="L35" s="3">
         <v>-900</v>
       </c>
       <c r="M35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,17 +2008,20 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E42" s="3">
         <v>3300</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,8 +2037,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,32 +2140,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E46" s="3">
         <v>9900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2180,7 +2287,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -2191,8 +2298,8 @@
       <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>300</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,31 +2618,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>500</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2545,16 +2678,16 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2571,32 +2704,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,32 +2748,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2668,7 +2810,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -2677,7 +2819,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,32 +3250,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E76" s="3">
         <v>8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-900</v>
       </c>
       <c r="L81" s="3">
         <v>-900</v>
       </c>
       <c r="M81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3450,17 +3648,17 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,38 +3889,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,17 +4083,20 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -3877,14 +4106,14 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4091,25 +4336,25 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>15800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,38 +4409,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>VLON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -772,11 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-800</v>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N18" s="3">
         <v>-800</v>
       </c>
       <c r="O18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1207,23 +1241,26 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,23 +1268,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,17 +1294,20 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1295,67 +1335,73 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-900</v>
       </c>
       <c r="M23" s="3">
         <v>-900</v>
       </c>
       <c r="N23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-900</v>
       </c>
       <c r="M26" s="3">
         <v>-900</v>
       </c>
       <c r="N26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-900</v>
       </c>
       <c r="M27" s="3">
         <v>-900</v>
       </c>
       <c r="N27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1735,67 +1805,73 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-900</v>
       </c>
       <c r="M33" s="3">
         <v>-900</v>
       </c>
       <c r="N33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-900</v>
       </c>
       <c r="M35" s="3">
         <v>-900</v>
       </c>
       <c r="N35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,20 +2098,23 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E42" s="3">
         <v>3800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,8 +2130,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,26 +2251,26 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E46" s="3">
         <v>8100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2290,7 +2398,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -2301,8 +2409,8 @@
       <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>300</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
         <v>8300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,34 +2749,35 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>500</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2681,16 +2815,16 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2707,35 +2841,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,13 +2935,16 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -2813,7 +2956,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -2822,7 +2965,7 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-900</v>
       </c>
       <c r="M81" s="3">
         <v>-900</v>
       </c>
       <c r="N81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3651,17 +3850,17 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4106,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,20 +4313,23 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4109,14 +4339,14 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,25 +4585,25 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>15800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,41 +4661,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>VLON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -779,11 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>500</v>
       </c>
       <c r="N12" s="3">
         <v>500</v>
       </c>
       <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-800</v>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O18" s="3">
         <v>-800</v>
       </c>
       <c r="P18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1244,23 +1278,26 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,26 +1305,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,17 +1334,20 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1338,70 +1378,76 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-1800</v>
       </c>
       <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-900</v>
       </c>
       <c r="N23" s="3">
         <v>-900</v>
       </c>
       <c r="O23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1800</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-900</v>
       </c>
       <c r="N26" s="3">
         <v>-900</v>
       </c>
       <c r="O26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-1800</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-900</v>
       </c>
       <c r="N27" s="3">
         <v>-900</v>
       </c>
       <c r="O27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1808,70 +1878,76 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-1800</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-900</v>
       </c>
       <c r="N33" s="3">
         <v>-900</v>
       </c>
       <c r="O33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-1800</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-900</v>
       </c>
       <c r="N35" s="3">
         <v>-900</v>
       </c>
       <c r="O35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2140,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,23 +2188,26 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E42" s="3">
         <v>2600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2223,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,38 +2338,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
       </c>
       <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2388,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E46" s="3">
         <v>5800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2401,7 +2509,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2412,8 +2520,8 @@
       <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>300</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2788,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,37 +2880,38 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>500</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2818,16 +2952,16 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2844,38 +2978,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
       <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,38 +3028,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2959,7 +3102,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -2968,7 +3111,7 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3328,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3598,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3798,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-1800</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-900</v>
       </c>
       <c r="N81" s="3">
         <v>-900</v>
       </c>
       <c r="O81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,17 +4052,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,44 +4323,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,23 +4543,26 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>900</v>
       </c>
       <c r="E94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4342,14 +4572,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,13 +4813,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4588,25 +4834,25 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>15800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,44 +4913,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>2700</v>
       </c>
       <c r="E102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>VLON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -772,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -786,11 +790,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
       </c>
       <c r="O12" s="3">
         <v>500</v>
       </c>
       <c r="P12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-800</v>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P18" s="3">
         <v>-800</v>
       </c>
       <c r="Q18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,16 +1279,17 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1281,53 +1315,56 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1337,17 +1374,20 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1381,73 +1421,79 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-900</v>
       </c>
       <c r="O23" s="3">
         <v>-900</v>
       </c>
       <c r="P23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-900</v>
       </c>
       <c r="O26" s="3">
         <v>-900</v>
       </c>
       <c r="P26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-900</v>
       </c>
       <c r="O27" s="3">
         <v>-900</v>
       </c>
       <c r="P27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,16 +1913,19 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1881,73 +1951,79 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-900</v>
       </c>
       <c r="O33" s="3">
         <v>-900</v>
       </c>
       <c r="P33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-900</v>
       </c>
       <c r="O35" s="3">
         <v>-900</v>
       </c>
       <c r="P35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,41 +2227,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,26 +2278,29 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,8 +2316,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,41 +2437,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,41 +2490,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E46" s="3">
         <v>7800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,13 +2596,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2512,7 +2620,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -2523,8 +2631,8 @@
       <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>300</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,41 +2914,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>8000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,40 +3011,41 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>500</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2931,13 +3062,16 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2955,16 +3089,16 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2981,41 +3115,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,41 +3168,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -3105,7 +3248,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -3114,7 +3257,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3486,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,41 +3772,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,41 +3984,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-900</v>
       </c>
       <c r="O81" s="3">
         <v>-900</v>
       </c>
       <c r="P81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4224,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4055,17 +4254,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,47 +4540,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,26 +4773,29 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4575,14 +4805,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,17 +5059,20 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4837,25 +5083,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>15800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,47 +5165,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VLON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>VLON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,8 +757,8 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -779,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -793,11 +796,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>500</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
       </c>
       <c r="Q12" s="3">
+        <v>500</v>
+      </c>
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1162,52 +1188,55 @@
         <v>1400</v>
       </c>
       <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
       <c r="R17" s="3">
+        <v>800</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,50 +1246,53 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-800</v>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q18" s="3">
         <v>-800</v>
       </c>
       <c r="R18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,8 +1324,8 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1318,23 +1351,26 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,30 +1380,30 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1377,31 +1413,34 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1424,76 +1463,82 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-900</v>
       </c>
       <c r="P23" s="3">
         <v>-900</v>
       </c>
       <c r="Q23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-900</v>
       </c>
       <c r="P26" s="3">
         <v>-900</v>
       </c>
       <c r="Q26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
       </c>
       <c r="P27" s="3">
         <v>-900</v>
       </c>
       <c r="Q27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,8 +1996,8 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1954,76 +2023,82 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-900</v>
       </c>
       <c r="P33" s="3">
         <v>-900</v>
       </c>
       <c r="Q33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-900</v>
       </c>
       <c r="P35" s="3">
         <v>-900</v>
       </c>
       <c r="Q35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,29 +2367,32 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2408,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,35 +2547,35 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E46" s="3">
         <v>5600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,22 +2703,25 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2623,7 +2730,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -2634,8 +2741,8 @@
       <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>300</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2823,19 +2942,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,43 +3141,44 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>500</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3092,16 +3225,16 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -3118,44 +3251,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3239,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -3251,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -3260,7 +3402,7 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27300</v>
+        <v>-28900</v>
       </c>
       <c r="E72" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-26300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-900</v>
       </c>
       <c r="P81" s="3">
         <v>-900</v>
       </c>
       <c r="Q81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,17 +4422,18 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -4257,17 +4455,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,50 +4756,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,29 +5002,32 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4808,14 +5037,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,11 +5316,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5086,25 +5331,25 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>15800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,50 +5416,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-1000</v>
       </c>
       <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
